--- a/forms/Form-1RC_interim.xlsx
+++ b/forms/Form-1RC_interim.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B2965F-BF5C-4A1C-AA4D-2F4831C59202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7D10CA-DC88-4084-9F70-AE7BE4A85E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -48,12 +48,6 @@
     <t>Full name</t>
   </si>
   <si>
-    <t>e-mail</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
     <t>General information</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>Submission information</t>
   </si>
   <si>
-    <t>Finalization date</t>
-  </si>
-  <si>
     <t>Submission date</t>
   </si>
   <si>
@@ -133,6 +124,15 @@
   </si>
   <si>
     <t>1.0.0-interim</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Finalisation date</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1155,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="60" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
@@ -1176,17 +1176,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -1202,7 +1202,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1227,7 +1227,7 @@
       <c r="D8" s="59"/>
       <c r="E8" s="6"/>
       <c r="F8" s="59" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G8" s="59"/>
       <c r="H8" s="7"/>
@@ -1248,12 +1248,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="9" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>3</v>
+      <c r="F10" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="7"/>
@@ -1270,7 +1270,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="6"/>
@@ -1281,7 +1281,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="6"/>
@@ -1310,7 +1310,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1330,7 +1330,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="6"/>
@@ -1341,7 +1341,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="6"/>
@@ -1352,7 +1352,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="6"/>
@@ -1381,7 +1381,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="6"/>
@@ -1421,7 +1421,7 @@
       <c r="D27" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FG+np5Qq1fVdwsrvb0t/ZWGQQOSxF5iFoAPpqyCIY4tgas5K8l8fI9MiudOZO8am6j0fbeziFy4cY/f/wSOlgw==" saltValue="J8yExTaKfufAqx4WoaP2uQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6nq4CcSj+dB64lOUNZwxe9g6pNONMxBOTo3sTm6wEU1ATHbBSoYG/myQc9Ug3RQRS9FnJJQpYwA8G4/6DHd9Ow==" saltValue="3qU76qolfPfdYgNGDPDXxg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1474,7 +1474,7 @@
     <row r="1" spans="1:111" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="60" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
@@ -1702,23 +1702,23 @@
     <row r="4" spans="1:111" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="66" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
       <c r="E4" s="67"/>
       <c r="F4" s="68"/>
       <c r="G4" s="66" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H4" s="67"/>
       <c r="I4" s="68"/>
       <c r="J4" s="66" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K4" s="68"/>
       <c r="L4" s="69" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M4" s="70"/>
       <c r="N4" s="70"/>
@@ -1822,34 +1822,34 @@
     </row>
     <row r="5" spans="1:111" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G5" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="39" t="s">
-        <v>18</v>
-      </c>
       <c r="I5" s="38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L5" s="42"/>
       <c r="M5" s="43"/>

--- a/forms/Form-1RC_interim.xlsx
+++ b/forms/Form-1RC_interim.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7D10CA-DC88-4084-9F70-AE7BE4A85E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526EBD97-B39C-4CF9-8805-1690C97313EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -597,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -813,6 +813,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1139,7 +1140,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1253,7 @@
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="72" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="23"/>
@@ -1421,7 +1422,7 @@
       <c r="D27" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6nq4CcSj+dB64lOUNZwxe9g6pNONMxBOTo3sTm6wEU1ATHbBSoYG/myQc9Ug3RQRS9FnJJQpYwA8G4/6DHd9Ow==" saltValue="3qU76qolfPfdYgNGDPDXxg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+o5eakH6krIsK7d3PB8nk/Eul4T67SgTdhL/FMRuolhTkYYAfYnd2yVTSlzULq5SsGkov/Tgku+9dySl4SSuag==" saltValue="f/LAxS1baHi2CaS4yboKgQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>

--- a/forms/Form-1RC_interim.xlsx
+++ b/forms/Form-1RC_interim.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526EBD97-B39C-4CF9-8805-1690C97313EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95879ED3-6BC8-4B83-ABCD-C63F7934FCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -597,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -813,7 +813,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1140,7 +1139,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,7 +1252,7 @@
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="23"/>
